--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_15_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_15_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2542278.610382167</v>
+        <v>2539378.279974228</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>520860.0274552683</v>
+        <v>520860.0274552674</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9081466.444526188</v>
+        <v>9081466.444526186</v>
       </c>
     </row>
     <row r="11">
@@ -1148,52 +1148,52 @@
         <v>6.876045741711437</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="I8" t="n">
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>6.056421089299432</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,64 +1209,64 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="C9" t="n">
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>6.876045741711437</v>
@@ -1288,70 +1288,70 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="U10" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="V10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="E10" t="n">
-        <v>6.056421089299432</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="W10" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>331.6388439349719</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081959</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>298.9494425801205</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,7 +1464,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1531,16 +1531,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>64.44601915223804</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>81.37259901119297</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108353</v>
       </c>
       <c r="S13" t="n">
         <v>181.338488358459</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>356.5845196044223</v>
       </c>
       <c r="G14" t="n">
         <v>409.8432760127576</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081959</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>200.6173698503548</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108353</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1819,19 +1819,19 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>41.60617040425771</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>136.5967098577641</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>304.3915154833938</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.32106446352842</v>
+        <v>84.61259060081959</v>
       </c>
       <c r="T17" t="n">
         <v>199.1970568374742</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>84.56702400647409</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108353</v>
       </c>
       <c r="S19" t="n">
         <v>181.338488358459</v>
@@ -2056,7 +2056,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
-        <v>128.3729041642954</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2096,7 +2096,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H20" t="n">
-        <v>283.5630920045443</v>
+        <v>233.2715658672552</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T20" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U20" t="n">
-        <v>200.6173698503557</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2175,7 +2175,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>91.23885045891188</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S22" t="n">
-        <v>90.70669256541764</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
         <v>217.4819944627618</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>23.57530571412365</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>7.729505493042338</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.80457674440902</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1.749532638427094</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>64.44601915223836</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.338488358459</v>
@@ -3004,7 +3004,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U31" t="n">
-        <v>210.177480908705</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>135.4505957967414</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>7.729505493042338</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H34" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>155.2280579381795</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.32106446353023</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T35" t="n">
         <v>199.1970568374742</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>319.4395745411782</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>9.434273714502826</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>21.3937953424801</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.80457674440902</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>359.5517498754676</v>
+        <v>359.5517498754667</v>
       </c>
       <c r="H38" t="n">
         <v>283.5630920045443</v>
@@ -3664,10 +3664,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>23.89579629161431</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T40" t="n">
         <v>217.4819944627618</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>3.267722102752168</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>356.5845196044206</v>
       </c>
       <c r="G41" t="n">
         <v>409.8432760127576</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.32106446353023</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T41" t="n">
         <v>199.1970568374742</v>
@@ -3898,10 +3898,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>9.434273714502826</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5420528771669</v>
+        <v>81.37259901119255</v>
       </c>
       <c r="H43" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754667</v>
       </c>
       <c r="H44" t="n">
         <v>283.5630920045443</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T44" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
-        <v>200.6173698503557</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4071,7 +4071,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,13 +4141,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>131.6267707433217</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5420528771669</v>
+        <v>117.9650415418418</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S46" t="n">
         <v>181.338488358459</v>
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C8" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D8" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E8" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F8" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G8" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H8" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I8" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="J8" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K8" t="n">
         <v>7.357368943631237</v>
@@ -4811,10 +4811,10 @@
         <v>7.357368943631237</v>
       </c>
       <c r="M8" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N8" t="n">
-        <v>20.97193951221988</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O8" t="n">
         <v>27.50418296684575</v>
@@ -4826,28 +4826,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R8" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S8" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T8" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U8" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V8" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W8" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X8" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y8" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="9">
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C9" t="n">
         <v>0.5500836593369149</v>
@@ -4881,19 +4881,19 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="J9" t="n">
+        <v>0.5500836593369149</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.5500836593369149</v>
+      </c>
+      <c r="L9" t="n">
         <v>7.357368943631237</v>
       </c>
-      <c r="K9" t="n">
-        <v>13.8896123982571</v>
-      </c>
-      <c r="L9" t="n">
-        <v>13.8896123982571</v>
-      </c>
       <c r="M9" t="n">
-        <v>20.69689768255142</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O9" t="n">
         <v>27.50418296684575</v>
@@ -4905,28 +4905,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T9" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="U9" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="V9" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="W9" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="X9" t="n">
-        <v>21.38658590694733</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="Y9" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="10">
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C10" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D10" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E10" t="n">
         <v>0.5500836593369149</v>
@@ -4963,49 +4963,49 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L10" t="n">
-        <v>7.357368943631237</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="M10" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N10" t="n">
+        <v>14.16465422792556</v>
+      </c>
+      <c r="O10" t="n">
         <v>20.69689768255142</v>
-      </c>
-      <c r="O10" t="n">
-        <v>27.50418296684575</v>
       </c>
       <c r="P10" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="Q10" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R10" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S10" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T10" t="n">
         <v>20.55868221764227</v>
       </c>
       <c r="U10" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V10" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="W10" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="X10" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y10" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614634</v>
       </c>
       <c r="D11" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007884</v>
       </c>
       <c r="E11" t="n">
         <v>1204.208000760437</v>
@@ -5030,61 +5030,61 @@
         <v>793.22209597083</v>
       </c>
       <c r="G11" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H11" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I11" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251934</v>
+        <v>372.3074987251937</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128751</v>
+        <v>841.9378825128757</v>
       </c>
       <c r="L11" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M11" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N11" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O11" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.915188021279</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q11" t="n">
-        <v>4514.497374127287</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R11" t="n">
-        <v>4640.581161304025</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S11" t="n">
-        <v>4555.113898070874</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T11" t="n">
-        <v>4353.904749750192</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U11" t="n">
-        <v>4100.461420469742</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V11" t="n">
-        <v>3769.398533126171</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X11" t="n">
-        <v>3093.963640945778</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y11" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F12" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G12" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I12" t="n">
-        <v>92.8116232260805</v>
+        <v>93.85065580060316</v>
       </c>
       <c r="J12" t="n">
-        <v>92.8116232260805</v>
+        <v>241.4986375524492</v>
       </c>
       <c r="K12" t="n">
-        <v>92.8116232260805</v>
+        <v>572.0073801158081</v>
       </c>
       <c r="L12" t="n">
-        <v>561.2235631333352</v>
+        <v>572.0073801158081</v>
       </c>
       <c r="M12" t="n">
-        <v>1153.241917385463</v>
+        <v>1164.025734367936</v>
       </c>
       <c r="N12" t="n">
-        <v>1775.337880784799</v>
+        <v>1320.428158124812</v>
       </c>
       <c r="O12" t="n">
-        <v>2322.214355784993</v>
+        <v>1867.304633125006</v>
       </c>
       <c r="P12" t="n">
-        <v>2322.214355784993</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q12" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R12" t="n">
         <v>2552.77562977024</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>494.0589900220732</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="C13" t="n">
-        <v>325.1228070941663</v>
+        <v>325.1228070941668</v>
       </c>
       <c r="D13" t="n">
-        <v>325.1228070941663</v>
+        <v>175.006167681831</v>
       </c>
       <c r="E13" t="n">
-        <v>325.1228070941663</v>
+        <v>175.006167681831</v>
       </c>
       <c r="F13" t="n">
-        <v>260.0258180515016</v>
+        <v>175.006167681831</v>
       </c>
       <c r="G13" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H13" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I13" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J13" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K13" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861983</v>
       </c>
       <c r="L13" t="n">
-        <v>819.1842911693323</v>
+        <v>819.1842911693327</v>
       </c>
       <c r="M13" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N13" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O13" t="n">
-        <v>2020.132206020528</v>
+        <v>2020.132206020529</v>
       </c>
       <c r="P13" t="n">
         <v>2310.662640856733</v>
@@ -5224,25 +5224,25 @@
         <v>2360.516429368669</v>
       </c>
       <c r="S13" t="n">
-        <v>2177.346239107599</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T13" t="n">
-        <v>1957.667456821981</v>
+        <v>1957.667456821982</v>
       </c>
       <c r="U13" t="n">
         <v>1668.591243136708</v>
       </c>
       <c r="V13" t="n">
-        <v>1413.906754930821</v>
+        <v>1413.906754930822</v>
       </c>
       <c r="W13" t="n">
-        <v>1124.48958489386</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X13" t="n">
-        <v>896.5000339958431</v>
+        <v>896.5000339958435</v>
       </c>
       <c r="Y13" t="n">
-        <v>675.7074548523129</v>
+        <v>675.7074548523134</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555047</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614635</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007885</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.40847940964</v>
       </c>
       <c r="F14" t="n">
         <v>793.22209597083</v>
@@ -5270,13 +5270,13 @@
         <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608088</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K14" t="n">
         <v>841.937882512877</v>
@@ -5285,43 +5285,43 @@
         <v>1461.457663018653</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.46222495769</v>
+        <v>2182.462224957691</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874797</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333935</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021283</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127291</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304029</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070875</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750193</v>
+        <v>4353.904749750196</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476972</v>
+        <v>3769.398533126175</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.62987785606</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945778</v>
+        <v>3043.164119594981</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619169</v>
       </c>
     </row>
     <row r="15">
@@ -5340,43 +5340,43 @@
         <v>619.2366775615039</v>
       </c>
       <c r="E15" t="n">
-        <v>459.9992225560484</v>
+        <v>459.9992225560485</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G15" t="n">
-        <v>177.6844143428629</v>
+        <v>177.684414342863</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J15" t="n">
-        <v>240.4596049779265</v>
+        <v>240.4596049779266</v>
       </c>
       <c r="K15" t="n">
-        <v>570.9683475412852</v>
+        <v>570.9683475412855</v>
       </c>
       <c r="L15" t="n">
-        <v>1061.700680385036</v>
+        <v>570.9683475412855</v>
       </c>
       <c r="M15" t="n">
-        <v>1653.719034637164</v>
+        <v>1162.986701793413</v>
       </c>
       <c r="N15" t="n">
-        <v>2275.8149980365</v>
+        <v>1785.08266519275</v>
       </c>
       <c r="O15" t="n">
-        <v>2552.77562977024</v>
+        <v>1867.304633125006</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.385284034031</v>
+        <v>576.8750945618017</v>
       </c>
       <c r="C16" t="n">
-        <v>929.4491011061236</v>
+        <v>407.9389116338948</v>
       </c>
       <c r="D16" t="n">
-        <v>779.3324616937879</v>
+        <v>407.9389116338948</v>
       </c>
       <c r="E16" t="n">
-        <v>631.4193681113948</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="F16" t="n">
-        <v>484.5294206134844</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="G16" t="n">
-        <v>317.3152257880633</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861983</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693323</v>
+        <v>819.1842911693327</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020528</v>
+        <v>2020.132206020529</v>
       </c>
       <c r="P16" t="n">
         <v>2310.662640856733</v>
@@ -5458,28 +5458,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.205584149098</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T16" t="n">
-        <v>2025.52680186348</v>
+        <v>1957.667456821982</v>
       </c>
       <c r="U16" t="n">
-        <v>1983.500367111704</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1728.815878905817</v>
+        <v>1413.906754930822</v>
       </c>
       <c r="W16" t="n">
-        <v>1728.815878905817</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>1500.8263280078</v>
+        <v>896.5000339958435</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.03374886427</v>
+        <v>758.5235593920414</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555047</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614635</v>
       </c>
       <c r="D17" t="n">
         <v>1589.996253358682</v>
@@ -5507,58 +5507,58 @@
         <v>379.2389888872365</v>
       </c>
       <c r="H17" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="I17" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J17" t="n">
-        <v>372.3074987251936</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K17" t="n">
-        <v>841.9378825128755</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L17" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M17" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N17" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O17" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333935</v>
       </c>
       <c r="P17" t="n">
-        <v>4150.91518802128</v>
+        <v>4150.915188021283</v>
       </c>
       <c r="Q17" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127291</v>
       </c>
       <c r="R17" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304029</v>
       </c>
       <c r="S17" t="n">
-        <v>4605.913419421674</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T17" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750196</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.198054476972</v>
+        <v>3769.398533126175</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.62987785606</v>
       </c>
       <c r="X17" t="n">
-        <v>3093.963640945778</v>
+        <v>3043.164119594981</v>
       </c>
       <c r="Y17" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619169</v>
       </c>
     </row>
     <row r="18">
@@ -5577,34 +5577,34 @@
         <v>619.2366775615039</v>
       </c>
       <c r="E18" t="n">
-        <v>459.9992225560484</v>
+        <v>459.9992225560485</v>
       </c>
       <c r="F18" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G18" t="n">
-        <v>177.6844143428629</v>
+        <v>177.684414342863</v>
       </c>
       <c r="H18" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="I18" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J18" t="n">
-        <v>92.81162322608053</v>
+        <v>240.4596049779266</v>
       </c>
       <c r="K18" t="n">
-        <v>92.81162322608053</v>
+        <v>273.0036752628429</v>
       </c>
       <c r="L18" t="n">
-        <v>583.5439560698319</v>
+        <v>763.7360081065943</v>
       </c>
       <c r="M18" t="n">
-        <v>733.6583989593863</v>
+        <v>1355.754362358722</v>
       </c>
       <c r="N18" t="n">
-        <v>1355.754362358723</v>
+        <v>1355.754362358722</v>
       </c>
       <c r="O18" t="n">
         <v>1902.630837358917</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.4656035413914</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="C19" t="n">
-        <v>484.5294206134844</v>
+        <v>325.1228070941668</v>
       </c>
       <c r="D19" t="n">
-        <v>484.5294206134844</v>
+        <v>239.7015707239909</v>
       </c>
       <c r="E19" t="n">
-        <v>484.5294206134844</v>
+        <v>239.7015707239909</v>
       </c>
       <c r="F19" t="n">
-        <v>484.5294206134844</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="G19" t="n">
-        <v>317.3152257880633</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="H19" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="I19" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J19" t="n">
         <v>171.7937461156345</v>
       </c>
       <c r="K19" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861983</v>
       </c>
       <c r="L19" t="n">
-        <v>819.1842911693324</v>
+        <v>819.1842911693327</v>
       </c>
       <c r="M19" t="n">
         <v>1238.413883213792</v>
@@ -5686,7 +5686,7 @@
         <v>1653.109749005499</v>
       </c>
       <c r="O19" t="n">
-        <v>2020.132206020528</v>
+        <v>2020.132206020529</v>
       </c>
       <c r="P19" t="n">
         <v>2310.662640856733</v>
@@ -5698,25 +5698,25 @@
         <v>2360.516429368669</v>
       </c>
       <c r="S19" t="n">
-        <v>2177.346239107599</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T19" t="n">
-        <v>1957.667456821981</v>
+        <v>1957.667456821982</v>
       </c>
       <c r="U19" t="n">
-        <v>1827.997856656026</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.313368450139</v>
+        <v>1413.906754930822</v>
       </c>
       <c r="W19" t="n">
-        <v>1283.896198413179</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X19" t="n">
-        <v>1055.906647515161</v>
+        <v>896.5000339958435</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.1140683716311</v>
+        <v>675.7074548523134</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555047</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614635</v>
       </c>
       <c r="D20" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007885</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.40847940964</v>
       </c>
       <c r="F20" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200329</v>
       </c>
       <c r="G20" t="n">
-        <v>379.2389888872365</v>
+        <v>328.4394675364394</v>
       </c>
       <c r="H20" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="I20" t="n">
-        <v>92.81162322608179</v>
+        <v>92.81162322607952</v>
       </c>
       <c r="J20" t="n">
-        <v>372.3074987251948</v>
+        <v>372.307498725193</v>
       </c>
       <c r="K20" t="n">
-        <v>841.937882512877</v>
+        <v>841.9378825128749</v>
       </c>
       <c r="L20" t="n">
-        <v>1461.457663018652</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M20" t="n">
-        <v>2182.46222495769</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N20" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O20" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P20" t="n">
-        <v>4150.915188021282</v>
+        <v>4150.915188021283</v>
       </c>
       <c r="Q20" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.497374127291</v>
       </c>
       <c r="R20" t="n">
-        <v>4640.581161304027</v>
+        <v>4640.581161304029</v>
       </c>
       <c r="S20" t="n">
-        <v>4555.113898070876</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T20" t="n">
-        <v>4353.904749750194</v>
+        <v>4353.904749750196</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.198054476972</v>
+        <v>3769.398533126175</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.62987785606</v>
       </c>
       <c r="X20" t="n">
-        <v>3093.963640945778</v>
+        <v>3043.164119594981</v>
       </c>
       <c r="Y20" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619169</v>
       </c>
     </row>
     <row r="21">
@@ -5814,43 +5814,43 @@
         <v>619.2366775615039</v>
       </c>
       <c r="E21" t="n">
-        <v>459.9992225560484</v>
+        <v>459.9992225560485</v>
       </c>
       <c r="F21" t="n">
         <v>313.4646645829334</v>
       </c>
       <c r="G21" t="n">
-        <v>177.6844143428629</v>
+        <v>177.684414342863</v>
       </c>
       <c r="H21" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="I21" t="n">
-        <v>92.81162322608054</v>
+        <v>93.85065580060316</v>
       </c>
       <c r="J21" t="n">
-        <v>240.4596049779265</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K21" t="n">
-        <v>240.4596049779265</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L21" t="n">
-        <v>240.4596049779265</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="M21" t="n">
-        <v>733.6583989593869</v>
+        <v>1164.025734367936</v>
       </c>
       <c r="N21" t="n">
-        <v>1355.754362358723</v>
+        <v>1786.121697767272</v>
       </c>
       <c r="O21" t="n">
-        <v>1902.630837358917</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="P21" t="n">
-        <v>2322.214355784993</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q21" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R21" t="n">
         <v>2552.77562977024</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.4656035413914</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="C22" t="n">
-        <v>484.5294206134845</v>
+        <v>401.8985350130713</v>
       </c>
       <c r="D22" t="n">
-        <v>484.5294206134845</v>
+        <v>401.8985350130713</v>
       </c>
       <c r="E22" t="n">
-        <v>484.5294206134845</v>
+        <v>401.8985350130713</v>
       </c>
       <c r="F22" t="n">
-        <v>484.5294206134845</v>
+        <v>401.8985350130713</v>
       </c>
       <c r="G22" t="n">
-        <v>317.3152257880633</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="H22" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="I22" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J22" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K22" t="n">
         <v>431.4224730861981</v>
@@ -5932,28 +5932,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R22" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.752852626918</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.074070341299</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U22" t="n">
-        <v>1827.997856656026</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.313368450139</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W22" t="n">
-        <v>1283.896198413179</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X22" t="n">
-        <v>1055.906647515161</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.1140683716311</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C23" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D23" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E23" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963555</v>
       </c>
       <c r="G23" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I23" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J23" t="n">
-        <v>373.3442236507201</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K23" t="n">
         <v>842.974607438402</v>
@@ -6002,37 +6002,37 @@
         <v>2920.783927800321</v>
       </c>
       <c r="O23" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P23" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q23" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R23" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U23" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V23" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W23" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X23" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="24">
@@ -6060,19 +6060,19 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H24" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I24" t="n">
-        <v>93.84834815160704</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="J24" t="n">
-        <v>93.84834815160704</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="K24" t="n">
-        <v>93.84834815160704</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="L24" t="n">
-        <v>373.2380436180322</v>
+        <v>585.619713569881</v>
       </c>
       <c r="M24" t="n">
         <v>965.25639787016</v>
@@ -6124,31 +6124,31 @@
         <v>495.0957149476001</v>
       </c>
       <c r="C25" t="n">
-        <v>326.1595320196932</v>
+        <v>471.2822748323237</v>
       </c>
       <c r="D25" t="n">
-        <v>326.1595320196932</v>
+        <v>471.2822748323237</v>
       </c>
       <c r="E25" t="n">
-        <v>326.1595320196932</v>
+        <v>323.3691812499305</v>
       </c>
       <c r="F25" t="n">
-        <v>318.3519507135898</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="G25" t="n">
-        <v>318.3519507135898</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H25" t="n">
         <v>176.4792337520202</v>
       </c>
       <c r="I25" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J25" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K25" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L25" t="n">
         <v>820.2210160948589</v>
@@ -6212,10 +6212,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H26" t="n">
         <v>93.84834815160703</v>
@@ -6230,16 +6230,16 @@
         <v>842.974607438402</v>
       </c>
       <c r="L26" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M26" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N26" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O26" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P26" t="n">
         <v>4202.751434297606</v>
@@ -6251,7 +6251,7 @@
         <v>4692.417407580351</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T26" t="n">
         <v>4405.740996026519</v>
@@ -6303,25 +6303,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J27" t="n">
-        <v>93.84834815160703</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K27" t="n">
-        <v>93.84834815160703</v>
+        <v>241.496329903453</v>
       </c>
       <c r="L27" t="n">
-        <v>584.5806809953584</v>
+        <v>732.2286627472043</v>
       </c>
       <c r="M27" t="n">
-        <v>699.3689196510026</v>
+        <v>929.9301936362498</v>
       </c>
       <c r="N27" t="n">
-        <v>1321.464883050339</v>
+        <v>1552.026157035586</v>
       </c>
       <c r="O27" t="n">
-        <v>1868.341358050533</v>
+        <v>2098.90263203578</v>
       </c>
       <c r="P27" t="n">
-        <v>2287.924876476609</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="Q27" t="n">
         <v>2518.486150461856</v>
@@ -6367,16 +6367,16 @@
         <v>326.1595320196932</v>
       </c>
       <c r="E28" t="n">
-        <v>326.1595320196932</v>
+        <v>178.2464384373001</v>
       </c>
       <c r="F28" t="n">
-        <v>326.1595320196932</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="G28" t="n">
-        <v>158.945337194272</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H28" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I28" t="n">
         <v>93.84834815160703</v>
@@ -6482,7 +6482,7 @@
         <v>4151.951912946808</v>
       </c>
       <c r="Q29" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R29" t="n">
         <v>4692.417407580351</v>
@@ -6537,31 +6537,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I30" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="J30" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="K30" t="n">
-        <v>93.84834815160703</v>
+        <v>425.3961232894884</v>
       </c>
       <c r="L30" t="n">
-        <v>142.676769632785</v>
+        <v>699.3689196510026</v>
       </c>
       <c r="M30" t="n">
-        <v>734.6951238849127</v>
+        <v>699.3689196510026</v>
       </c>
       <c r="N30" t="n">
-        <v>1356.791087284249</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O30" t="n">
-        <v>1903.667562284443</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P30" t="n">
-        <v>2323.251080710519</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R30" t="n">
         <v>2553.812354695766</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.8714428665047</v>
+        <v>874.9184063975742</v>
       </c>
       <c r="C31" t="n">
-        <v>402.9352599385978</v>
+        <v>705.9822234696674</v>
       </c>
       <c r="D31" t="n">
-        <v>402.9352599385978</v>
+        <v>555.8655840573316</v>
       </c>
       <c r="E31" t="n">
-        <v>402.9352599385978</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="F31" t="n">
-        <v>402.9352599385978</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G31" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H31" t="n">
         <v>93.84834815160703</v>
@@ -6643,28 +6643,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R31" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S31" t="n">
-        <v>2178.382964033126</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T31" t="n">
-        <v>1958.704181747508</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.403695981139</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.719207775252</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.302037738292</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X31" t="n">
-        <v>974.3124868402746</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.5199076967444</v>
+        <v>1056.566871227814</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6677,70 @@
         <v>2318.261193831371</v>
       </c>
       <c r="C32" t="n">
-        <v>1949.29867689096</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D32" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E32" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F32" t="n">
-        <v>794.2588208963573</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G32" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H32" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I32" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J32" t="n">
-        <v>373.3442236507201</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K32" t="n">
         <v>842.974607438402</v>
       </c>
       <c r="L32" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M32" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N32" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O32" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P32" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q32" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R32" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.950144347203</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.740996026521</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U32" t="n">
-        <v>4152.29766674607</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V32" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W32" t="n">
-        <v>3468.466124132385</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X32" t="n">
-        <v>3095.000365871305</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.861033895493</v>
@@ -6771,34 +6771,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H33" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I33" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J33" t="n">
-        <v>93.84834815160706</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K33" t="n">
-        <v>93.84834815160706</v>
+        <v>241.496329903453</v>
       </c>
       <c r="L33" t="n">
-        <v>142.676769632785</v>
+        <v>732.2286627472043</v>
       </c>
       <c r="M33" t="n">
-        <v>734.6951238849127</v>
+        <v>732.2286627472043</v>
       </c>
       <c r="N33" t="n">
-        <v>1356.791087284249</v>
+        <v>1354.324626146541</v>
       </c>
       <c r="O33" t="n">
-        <v>1903.667562284443</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P33" t="n">
-        <v>2323.251080710519</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R33" t="n">
         <v>2553.812354695766</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>495.0957149476001</v>
+        <v>559.092275971757</v>
       </c>
       <c r="C34" t="n">
-        <v>326.1595320196932</v>
+        <v>559.092275971757</v>
       </c>
       <c r="D34" t="n">
-        <v>326.1595320196932</v>
+        <v>408.9756365594213</v>
       </c>
       <c r="E34" t="n">
-        <v>326.1595320196932</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F34" t="n">
-        <v>326.1595320196932</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G34" t="n">
-        <v>318.3519507135898</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H34" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I34" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J34" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K34" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L34" t="n">
         <v>820.2210160948589</v>
@@ -6901,7 +6901,7 @@
         <v>897.5367589213699</v>
       </c>
       <c r="Y34" t="n">
-        <v>676.7441797778398</v>
+        <v>740.7407408019967</v>
       </c>
     </row>
     <row r="35">
@@ -6929,52 +6929,52 @@
         <v>379.2389888872365</v>
       </c>
       <c r="H35" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I35" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J35" t="n">
-        <v>372.3074987251962</v>
+        <v>372.3074987251936</v>
       </c>
       <c r="K35" t="n">
-        <v>841.9378825128781</v>
+        <v>841.9378825128755</v>
       </c>
       <c r="L35" t="n">
-        <v>1461.457663018653</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M35" t="n">
-        <v>2182.462224957691</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N35" t="n">
-        <v>2919.747202874797</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O35" t="n">
-        <v>3602.609239333935</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P35" t="n">
-        <v>4150.915188021283</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q35" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R35" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S35" t="n">
-        <v>4605.913419421674</v>
+        <v>4555.113898070876</v>
       </c>
       <c r="T35" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750194</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469744</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.198054476972</v>
+        <v>3769.398533126173</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X35" t="n">
         <v>3093.963640945778</v>
@@ -7002,40 +7002,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F36" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G36" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H36" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I36" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J36" t="n">
-        <v>92.81162322608056</v>
+        <v>106.3138404733484</v>
       </c>
       <c r="K36" t="n">
-        <v>92.81162322608056</v>
+        <v>106.3138404733484</v>
       </c>
       <c r="L36" t="n">
-        <v>583.5439560698319</v>
+        <v>106.3138404733484</v>
       </c>
       <c r="M36" t="n">
-        <v>1175.56231032196</v>
+        <v>698.3321947254761</v>
       </c>
       <c r="N36" t="n">
-        <v>1797.658273721296</v>
+        <v>1320.428158124812</v>
       </c>
       <c r="O36" t="n">
-        <v>2344.53474872149</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P36" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q36" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R36" t="n">
         <v>2552.77562977024</v>
@@ -7072,25 +7072,25 @@
         <v>494.0589900220732</v>
       </c>
       <c r="C37" t="n">
-        <v>484.5294206134845</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="D37" t="n">
-        <v>484.5294206134845</v>
+        <v>343.9423506097374</v>
       </c>
       <c r="E37" t="n">
-        <v>484.5294206134845</v>
+        <v>322.332456324404</v>
       </c>
       <c r="F37" t="n">
-        <v>484.5294206134845</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="G37" t="n">
-        <v>317.3152257880633</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="H37" t="n">
         <v>175.4425088264937</v>
       </c>
       <c r="I37" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J37" t="n">
         <v>171.7937461156345</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2266.424947555046</v>
+        <v>2266.424947555045</v>
       </c>
       <c r="C38" t="n">
-        <v>1897.462430614634</v>
+        <v>1897.462430614633</v>
       </c>
       <c r="D38" t="n">
-        <v>1539.196732007884</v>
+        <v>1539.196732007883</v>
       </c>
       <c r="E38" t="n">
-        <v>1153.40847940964</v>
+        <v>1153.408479409639</v>
       </c>
       <c r="F38" t="n">
-        <v>742.422574620032</v>
+        <v>742.4225746200311</v>
       </c>
       <c r="G38" t="n">
         <v>379.2389888872365</v>
       </c>
       <c r="H38" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I38" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J38" t="n">
-        <v>372.3074987251962</v>
+        <v>372.3074987251936</v>
       </c>
       <c r="K38" t="n">
-        <v>841.9378825128781</v>
+        <v>841.9378825128772</v>
       </c>
       <c r="L38" t="n">
-        <v>1461.457663018653</v>
+        <v>1461.457663018652</v>
       </c>
       <c r="M38" t="n">
-        <v>2182.462224957691</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N38" t="n">
-        <v>2919.747202874797</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O38" t="n">
-        <v>3602.609239333935</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P38" t="n">
-        <v>4150.915188021283</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q38" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R38" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S38" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070876</v>
       </c>
       <c r="T38" t="n">
-        <v>4353.904749750195</v>
+        <v>4353.904749750194</v>
       </c>
       <c r="U38" t="n">
-        <v>4100.461420469745</v>
+        <v>4100.461420469744</v>
       </c>
       <c r="V38" t="n">
-        <v>3769.398533126174</v>
+        <v>3769.398533126173</v>
       </c>
       <c r="W38" t="n">
         <v>3416.629877856059</v>
       </c>
       <c r="X38" t="n">
-        <v>3043.16411959498</v>
+        <v>3043.164119594979</v>
       </c>
       <c r="Y38" t="n">
-        <v>2653.024787619168</v>
+        <v>2653.024787619167</v>
       </c>
     </row>
     <row r="39">
@@ -7239,40 +7239,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F39" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G39" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H39" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I39" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J39" t="n">
-        <v>92.81162322608056</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K39" t="n">
-        <v>92.81162322608056</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L39" t="n">
-        <v>583.5439560698319</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M39" t="n">
-        <v>698.3321947254761</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="N39" t="n">
-        <v>1320.428158124812</v>
+        <v>1586.31563634397</v>
       </c>
       <c r="O39" t="n">
-        <v>1867.304633125007</v>
+        <v>2133.192111344164</v>
       </c>
       <c r="P39" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q39" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R39" t="n">
         <v>2552.77562977024</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>745.0885253246415</v>
+        <v>718.7478115233713</v>
       </c>
       <c r="C40" t="n">
-        <v>576.1523423967346</v>
+        <v>549.8116285954644</v>
       </c>
       <c r="D40" t="n">
-        <v>426.0357029843989</v>
+        <v>549.8116285954644</v>
       </c>
       <c r="E40" t="n">
         <v>401.8985350130713</v>
@@ -7324,10 +7324,10 @@
         <v>234.6843401876502</v>
       </c>
       <c r="H40" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I40" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J40" t="n">
         <v>171.7937461156345</v>
@@ -7354,28 +7354,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R40" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S40" t="n">
-        <v>2428.375774410168</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T40" t="n">
-        <v>2208.69699212455</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U40" t="n">
-        <v>1919.620778439276</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.936290233389</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W40" t="n">
-        <v>1375.519120196429</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X40" t="n">
-        <v>1147.529569298411</v>
+        <v>1121.188855497141</v>
       </c>
       <c r="Y40" t="n">
-        <v>926.7369901548813</v>
+        <v>900.396276353611</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555045</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614633</v>
       </c>
       <c r="D41" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007883</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.408479409639</v>
       </c>
       <c r="F41" t="n">
         <v>793.22209597083</v>
@@ -7403,58 +7403,58 @@
         <v>379.2389888872365</v>
       </c>
       <c r="H41" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I41" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J41" t="n">
-        <v>372.3074987251944</v>
+        <v>372.3074987251936</v>
       </c>
       <c r="K41" t="n">
-        <v>841.9378825128765</v>
+        <v>841.9378825128755</v>
       </c>
       <c r="L41" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M41" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N41" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O41" t="n">
         <v>3602.609239333934</v>
       </c>
       <c r="P41" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q41" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R41" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S41" t="n">
-        <v>4605.913419421674</v>
+        <v>4555.113898070876</v>
       </c>
       <c r="T41" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750194</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469744</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.198054476972</v>
+        <v>3769.398533126173</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X41" t="n">
-        <v>3093.963640945778</v>
+        <v>3043.164119594979</v>
       </c>
       <c r="Y41" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619167</v>
       </c>
     </row>
     <row r="42">
@@ -7476,31 +7476,31 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F42" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G42" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H42" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I42" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J42" t="n">
-        <v>92.81162322608056</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K42" t="n">
-        <v>92.81162322608056</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L42" t="n">
-        <v>583.5439560698319</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M42" t="n">
-        <v>698.3321947254761</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N42" t="n">
-        <v>1320.428158124812</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="O42" t="n">
         <v>1867.304633125007</v>
@@ -7546,25 +7546,25 @@
         <v>494.0589900220732</v>
       </c>
       <c r="C43" t="n">
-        <v>494.0589900220732</v>
+        <v>325.1228070941663</v>
       </c>
       <c r="D43" t="n">
-        <v>484.5294206134845</v>
+        <v>175.0061676818306</v>
       </c>
       <c r="E43" t="n">
-        <v>484.5294206134845</v>
+        <v>175.0061676818306</v>
       </c>
       <c r="F43" t="n">
-        <v>484.5294206134845</v>
+        <v>175.0061676818306</v>
       </c>
       <c r="G43" t="n">
-        <v>317.3152257880633</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="H43" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I43" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J43" t="n">
         <v>171.7937461156345</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555045</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614633</v>
       </c>
       <c r="D44" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007883</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.408479409639</v>
       </c>
       <c r="F44" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200311</v>
       </c>
       <c r="G44" t="n">
         <v>379.2389888872365</v>
@@ -7643,13 +7643,13 @@
         <v>92.81162322608054</v>
       </c>
       <c r="I44" t="n">
-        <v>92.81162322608179</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J44" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K44" t="n">
-        <v>841.9378825128761</v>
+        <v>841.9378825128754</v>
       </c>
       <c r="L44" t="n">
         <v>1461.45766301865</v>
@@ -7679,19 +7679,19 @@
         <v>4353.904749750194</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469744</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.198054476972</v>
+        <v>3769.398533126173</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X44" t="n">
-        <v>3093.963640945778</v>
+        <v>3043.164119594979</v>
       </c>
       <c r="Y44" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619167</v>
       </c>
     </row>
     <row r="45">
@@ -7713,7 +7713,7 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F45" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G45" t="n">
         <v>177.6844143428629</v>
@@ -7722,25 +7722,25 @@
         <v>92.81162322608054</v>
       </c>
       <c r="I45" t="n">
-        <v>92.81162322608054</v>
+        <v>93.85065580060314</v>
       </c>
       <c r="J45" t="n">
-        <v>92.81162322608054</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K45" t="n">
-        <v>92.81162322608054</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L45" t="n">
-        <v>583.5439560698318</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M45" t="n">
-        <v>1175.562310321959</v>
+        <v>1654.758067211687</v>
       </c>
       <c r="N45" t="n">
-        <v>1320.428158124813</v>
+        <v>1740.011676550888</v>
       </c>
       <c r="O45" t="n">
-        <v>1867.304633125007</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="P45" t="n">
         <v>2286.888151551083</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>561.9183350635719</v>
+        <v>675.7074548523129</v>
       </c>
       <c r="C46" t="n">
-        <v>392.982152135665</v>
+        <v>506.7712719244061</v>
       </c>
       <c r="D46" t="n">
-        <v>392.982152135665</v>
+        <v>506.7712719244061</v>
       </c>
       <c r="E46" t="n">
-        <v>392.982152135665</v>
+        <v>358.8581783420129</v>
       </c>
       <c r="F46" t="n">
-        <v>260.0258180515017</v>
+        <v>211.9682308441026</v>
       </c>
       <c r="G46" t="n">
         <v>92.81162322608054</v>
@@ -7804,7 +7804,7 @@
         <v>92.81162322608054</v>
       </c>
       <c r="J46" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K46" t="n">
         <v>431.4224730861981</v>
@@ -7828,28 +7828,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R46" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S46" t="n">
-        <v>2245.205584149098</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T46" t="n">
-        <v>2025.52680186348</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U46" t="n">
-        <v>1736.450588178207</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V46" t="n">
-        <v>1481.76609997232</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W46" t="n">
-        <v>1192.348929935359</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X46" t="n">
-        <v>964.3593790373418</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y46" t="n">
-        <v>743.5667998938117</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>153.1623171557915</v>
+        <v>153.162317155792</v>
       </c>
       <c r="K2" t="n">
-        <v>178.2995816503743</v>
+        <v>178.2995816503751</v>
       </c>
       <c r="L2" t="n">
-        <v>183.921890437579</v>
+        <v>183.9218904375799</v>
       </c>
       <c r="M2" t="n">
-        <v>172.6592103145391</v>
+        <v>172.6592103145401</v>
       </c>
       <c r="N2" t="n">
-        <v>170.7926043432035</v>
+        <v>170.7926043432046</v>
       </c>
       <c r="O2" t="n">
-        <v>174.7445740292321</v>
+        <v>174.744574029233</v>
       </c>
       <c r="P2" t="n">
-        <v>183.9899468924717</v>
+        <v>183.9899468924726</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.8281276635337</v>
+        <v>186.8281276635343</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>110.2303530502586</v>
+        <v>110.2303530502589</v>
       </c>
       <c r="K3" t="n">
-        <v>109.456963196294</v>
+        <v>109.4569631962945</v>
       </c>
       <c r="L3" t="n">
-        <v>100.3879492343896</v>
+        <v>100.3879492343902</v>
       </c>
       <c r="M3" t="n">
-        <v>97.59560966966711</v>
+        <v>97.59560966966789</v>
       </c>
       <c r="N3" t="n">
-        <v>85.62448826923993</v>
+        <v>85.62448826924073</v>
       </c>
       <c r="O3" t="n">
-        <v>100.7739162391944</v>
+        <v>100.7739162391951</v>
       </c>
       <c r="P3" t="n">
-        <v>100.4083019080317</v>
+        <v>100.4083019080323</v>
       </c>
       <c r="Q3" t="n">
-        <v>117.5437214732393</v>
+        <v>117.5437214732397</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8140,19 +8140,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>112.97517439455</v>
+        <v>112.9751743945504</v>
       </c>
       <c r="M4" t="n">
-        <v>115.8252861469345</v>
+        <v>115.8252861469349</v>
       </c>
       <c r="N4" t="n">
-        <v>105.1343248701113</v>
+        <v>105.1343248701117</v>
       </c>
       <c r="O4" t="n">
-        <v>117.6268371350867</v>
+        <v>117.626837135087</v>
       </c>
       <c r="P4" t="n">
-        <v>119.904596130565</v>
+        <v>119.9045961305653</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8219,16 +8219,16 @@
         <v>100.0299464227919</v>
       </c>
       <c r="L5" t="n">
-        <v>86.82148686318189</v>
+        <v>86.82148686318186</v>
       </c>
       <c r="M5" t="n">
-        <v>64.61630209323866</v>
+        <v>64.61630209323863</v>
       </c>
       <c r="N5" t="n">
         <v>61.00144891149961</v>
       </c>
       <c r="O5" t="n">
-        <v>71.07189926570237</v>
+        <v>71.0718992657024</v>
       </c>
       <c r="P5" t="n">
         <v>95.50771753390021</v>
@@ -8313,7 +8313,7 @@
         <v>37.54182911310821</v>
       </c>
       <c r="Q6" t="n">
-        <v>75.5191492782957</v>
+        <v>75.51914927829571</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8380,7 +8380,7 @@
         <v>71.94053294496764</v>
       </c>
       <c r="M7" t="n">
-        <v>72.56001021962936</v>
+        <v>72.56001021962938</v>
       </c>
       <c r="N7" t="n">
         <v>62.89780050171086</v>
@@ -8450,22 +8450,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>94.63316322227178</v>
+        <v>87.75711748056034</v>
       </c>
       <c r="K8" t="n">
-        <v>80.27414188615768</v>
+        <v>87.15018762786912</v>
       </c>
       <c r="L8" t="n">
         <v>62.31266440775192</v>
       </c>
       <c r="M8" t="n">
-        <v>44.22156050876461</v>
+        <v>43.94374047879647</v>
       </c>
       <c r="N8" t="n">
         <v>40.16543747735753</v>
       </c>
       <c r="O8" t="n">
-        <v>51.50241520771151</v>
+        <v>51.78023523767965</v>
       </c>
       <c r="P8" t="n">
         <v>73.17418265679427</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>78.15150993587676</v>
+        <v>71.27546419416532</v>
       </c>
       <c r="K9" t="n">
-        <v>49.47507920956534</v>
+        <v>42.87685349782204</v>
       </c>
       <c r="L9" t="n">
-        <v>10.86277524892485</v>
+        <v>17.73882099063628</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>2.673277653404995</v>
+        <v>9.271503365148291</v>
       </c>
       <c r="P9" t="n">
         <v>21.67389073786379</v>
@@ -8611,22 +8611,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>71.73099563173358</v>
+        <v>78.60704137344501</v>
       </c>
       <c r="L10" t="n">
         <v>68.45914756601975</v>
       </c>
       <c r="M10" t="n">
-        <v>68.23777703363946</v>
+        <v>61.63955132189618</v>
       </c>
       <c r="N10" t="n">
-        <v>59.11305144985138</v>
+        <v>52.23700570813995</v>
       </c>
       <c r="O10" t="n">
-        <v>75.64364695151268</v>
+        <v>75.36582692154452</v>
       </c>
       <c r="P10" t="n">
-        <v>78.09707910265161</v>
+        <v>84.97312484436304</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>51.31264782908966</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>51.31264782908991</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>51.31264782909045</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>51.31264782908966</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>51.31264782908892</v>
       </c>
       <c r="R29" t="n">
-        <v>51.312647829089</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>51.31264782909045</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>51.31264782909085</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>2.614797267597169e-12</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>2.614797267597169e-12</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -22559,7 +22559,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>14.97420734684515</v>
+        <v>14.97420734684516</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22796,7 +22796,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.35889816588482</v>
+        <v>14.3588981658848</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>50.29152613728991</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>50.29152613729252</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>80.97502887069321</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>84.16945386597395</v>
       </c>
       <c r="H13" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440903</v>
+        <v>81.804576744409</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>50.29152613728911</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>50.29152613729153</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.804576744409</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>244.5792811441627</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>81.98794349433072</v>
       </c>
     </row>
     <row r="17">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>50.29152613728911</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>50.29152613729119</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>64.04844901173827</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.804576744409</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>157.812547384125</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>50.29152613728911</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>50.29152613729062</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>76.00797063971595</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>90.63179579304132</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>143.6715153845042</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>137.6915425298889</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6715153845041</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>76.00797063971555</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
         <v>81.80457674440902</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>76.00797063971547</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>83.13405755535337</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>157.8125473841246</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>63.3565954139153</v>
       </c>
     </row>
     <row r="35">
@@ -25202,7 +25202,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>50.29152613728939</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25217,7 +25217,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>50.29152613729087</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>157.812547384125</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>125.0401673040891</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25403,7 +25403,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>50.29152613729002</v>
+        <v>50.29152613729093</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>122.5381663549549</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>222.441933286285</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25637,7 +25637,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>50.29152613729087</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>50.29152613728939</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25786,10 +25786,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>139.1811993037095</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>84.16945386597438</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>50.29152613729093</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25919,7 +25919,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>50.29152613729062</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>13.79427727960953</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>47.57701133532511</v>
       </c>
       <c r="H46" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>843169.9235129551</v>
+        <v>843169.9235129554</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>771694.942531314</v>
+        <v>771694.9425313144</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>771694.9425313142</v>
+        <v>771694.9425313144</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>771694.9425313142</v>
+        <v>771694.9425313144</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>771694.9425313146</v>
+        <v>771694.9425313142</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>771694.9425313144</v>
+        <v>771694.9425313142</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>771694.9425313146</v>
+        <v>771694.9425313142</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>655441.9917747473</v>
+        <v>655441.9917747478</v>
       </c>
       <c r="C2" t="n">
-        <v>655481.1746633908</v>
+        <v>655481.1746633911</v>
       </c>
       <c r="D2" t="n">
         <v>656366.7978847882</v>
       </c>
       <c r="E2" t="n">
-        <v>642143.8173104243</v>
+        <v>642143.8173104245</v>
       </c>
       <c r="F2" t="n">
+        <v>642143.8173104246</v>
+      </c>
+      <c r="G2" t="n">
+        <v>642143.8173104248</v>
+      </c>
+      <c r="H2" t="n">
+        <v>642143.8173104246</v>
+      </c>
+      <c r="I2" t="n">
+        <v>645346.3816948473</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645346.3816948473</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645346.3816948477</v>
+      </c>
+      <c r="L2" t="n">
+        <v>645346.3816948474</v>
+      </c>
+      <c r="M2" t="n">
         <v>642143.8173104245</v>
       </c>
-      <c r="G2" t="n">
+      <c r="N2" t="n">
         <v>642143.8173104245</v>
-      </c>
-      <c r="H2" t="n">
-        <v>642143.8173104245</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645346.3816948474</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645346.3816948474</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645346.3816948474</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645346.3816948475</v>
-      </c>
-      <c r="M2" t="n">
-        <v>642143.8173104246</v>
-      </c>
-      <c r="N2" t="n">
-        <v>642143.8173104244</v>
       </c>
       <c r="O2" t="n">
         <v>642143.8173104245</v>
       </c>
       <c r="P2" t="n">
-        <v>642143.8173104243</v>
+        <v>642143.8173104246</v>
       </c>
     </row>
     <row r="3">
@@ -26363,28 +26363,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>78748.26533776312</v>
+        <v>78748.26533776175</v>
       </c>
       <c r="C3" t="n">
-        <v>139375.0654867084</v>
+        <v>139375.0654867097</v>
       </c>
       <c r="D3" t="n">
         <v>35221.70711368781</v>
       </c>
       <c r="E3" t="n">
-        <v>1215734.260598757</v>
+        <v>1215734.260598758</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3446.086611511672</v>
+        <v>3446.08661151149</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1740.265292815633</v>
+        <v>1740.265292815518</v>
       </c>
       <c r="M3" t="n">
-        <v>284169.8588481233</v>
+        <v>284169.8588481235</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>405286.412451645</v>
+        <v>405286.4124516454</v>
       </c>
       <c r="C4" t="n">
         <v>368187.1026115649</v>
@@ -26433,31 +26433,31 @@
         <v>9940.611700543546</v>
       </c>
       <c r="H4" t="n">
-        <v>9940.611700543544</v>
+        <v>9940.611700543546</v>
       </c>
       <c r="I4" t="n">
         <v>11478.42096839267</v>
       </c>
       <c r="J4" t="n">
-        <v>11478.42096839267</v>
+        <v>11478.42096839269</v>
       </c>
       <c r="K4" t="n">
         <v>11478.42096839265</v>
       </c>
       <c r="L4" t="n">
-        <v>11478.4209683927</v>
+        <v>11478.42096839269</v>
       </c>
       <c r="M4" t="n">
-        <v>9940.611700543624</v>
+        <v>9940.611700543595</v>
       </c>
       <c r="N4" t="n">
-        <v>9940.611700543624</v>
+        <v>9940.611700543599</v>
       </c>
       <c r="O4" t="n">
+        <v>9940.611700543595</v>
+      </c>
+      <c r="P4" t="n">
         <v>9940.611700543546</v>
-      </c>
-      <c r="P4" t="n">
-        <v>9940.611700543544</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35409.13697009405</v>
+        <v>35409.13697009401</v>
       </c>
       <c r="C5" t="n">
         <v>38745.80483114667</v>
@@ -26479,16 +26479,16 @@
         <v>100142.1285138384</v>
       </c>
       <c r="F5" t="n">
-        <v>100142.1285138384</v>
+        <v>100142.1285138385</v>
       </c>
       <c r="G5" t="n">
-        <v>100142.1285138384</v>
+        <v>100142.1285138385</v>
       </c>
       <c r="H5" t="n">
         <v>100142.1285138384</v>
       </c>
       <c r="I5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="J5" t="n">
         <v>100930.0394572385</v>
@@ -26497,7 +26497,7 @@
         <v>100930.0394572385</v>
       </c>
       <c r="L5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="M5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>135998.1770152451</v>
+        <v>135993.8288148821</v>
       </c>
       <c r="C6" t="n">
-        <v>109173.2017339709</v>
+        <v>109168.9759801322</v>
       </c>
       <c r="D6" t="n">
-        <v>222177.9087635208</v>
+        <v>222176.4505822501</v>
       </c>
       <c r="E6" t="n">
-        <v>-683673.1835027147</v>
+        <v>-683719.0884982806</v>
       </c>
       <c r="F6" t="n">
-        <v>532061.0770960426</v>
+        <v>532015.172100477</v>
       </c>
       <c r="G6" t="n">
-        <v>532061.0770960423</v>
+        <v>532015.172100477</v>
       </c>
       <c r="H6" t="n">
-        <v>532061.0770960427</v>
+        <v>532015.1721004772</v>
       </c>
       <c r="I6" t="n">
-        <v>529491.8346577046</v>
+        <v>529455.9376758402</v>
       </c>
       <c r="J6" t="n">
-        <v>532937.9212692162</v>
+        <v>532902.0242873518</v>
       </c>
       <c r="K6" t="n">
-        <v>532937.9212692162</v>
+        <v>532902.0242873522</v>
       </c>
       <c r="L6" t="n">
-        <v>531197.6559764005</v>
+        <v>531161.7589945364</v>
       </c>
       <c r="M6" t="n">
-        <v>247891.2182479193</v>
+        <v>247845.3132523534</v>
       </c>
       <c r="N6" t="n">
-        <v>532061.0770960423</v>
+        <v>532015.1721004769</v>
       </c>
       <c r="O6" t="n">
-        <v>532061.0770960426</v>
+        <v>532015.1721004769</v>
       </c>
       <c r="P6" t="n">
-        <v>532061.0770960423</v>
+        <v>532015.172100477</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81.7218793621123</v>
+        <v>81.72187936211088</v>
       </c>
       <c r="C3" t="n">
         <v>234.7800381259942</v>
@@ -26796,13 +26796,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="H4" t="n">
         <v>1160.145290326007</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81.7218793621123</v>
+        <v>81.72187936211088</v>
       </c>
       <c r="C3" t="n">
-        <v>153.0581587638819</v>
+        <v>153.0581587638833</v>
       </c>
       <c r="D3" t="n">
         <v>38.63295208268428</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.95906156908131</v>
+        <v>12.95906156908063</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27039,7 +27039,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.876045741712005</v>
+        <v>6.87604574171155</v>
       </c>
       <c r="M4" t="n">
         <v>1140.310183015214</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>336.1102425297682</v>
+        <v>336.1102425297683</v>
       </c>
       <c r="I2" t="n">
-        <v>197.8102302574096</v>
+        <v>197.8102302574098</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>129.2320847573093</v>
+        <v>129.2320847573097</v>
       </c>
       <c r="S2" t="n">
-        <v>201.5336883763393</v>
+        <v>201.5336883763394</v>
       </c>
       <c r="T2" t="n">
         <v>221.6577087524423</v>
@@ -27476,7 +27476,7 @@
         <v>110.5377878369175</v>
       </c>
       <c r="I3" t="n">
-        <v>83.34458801186241</v>
+        <v>83.34458801186253</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>89.24410845217085</v>
+        <v>89.24410845217103</v>
       </c>
       <c r="S3" t="n">
-        <v>168.4181507349836</v>
+        <v>168.4181507349837</v>
       </c>
       <c r="T3" t="n">
         <v>199.4562154199746</v>
@@ -27552,16 +27552,16 @@
         <v>167.8436120350189</v>
       </c>
       <c r="H4" t="n">
-        <v>160.916943031765</v>
+        <v>160.9169430317651</v>
       </c>
       <c r="I4" t="n">
-        <v>151.0187376005391</v>
+        <v>151.0187376005392</v>
       </c>
       <c r="J4" t="n">
-        <v>82.94031034947363</v>
+        <v>82.94031034947382</v>
       </c>
       <c r="K4" t="n">
-        <v>5.148088248050151</v>
+        <v>5.148088248050446</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>73.82203946801543</v>
+        <v>73.82203946801565</v>
       </c>
       <c r="R4" t="n">
-        <v>170.6672206341366</v>
+        <v>170.6672206341367</v>
       </c>
       <c r="S4" t="n">
-        <v>221.4483875002973</v>
+        <v>221.4483875002974</v>
       </c>
       <c r="T4" t="n">
         <v>227.3159290463111</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>321.3421099982783</v>
+        <v>328.2181557399898</v>
       </c>
       <c r="I8" t="n">
-        <v>162.0445768026338</v>
+        <v>168.1009978919332</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>80.82478127302545</v>
+        <v>73.94873553131401</v>
       </c>
       <c r="S8" t="n">
         <v>183.9732413877317</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>343.1845476281136</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27929,10 +27929,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>159.6571379081559</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>165.8324532466043</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>63.64430312062375</v>
+        <v>56.76825737891232</v>
       </c>
       <c r="S9" t="n">
         <v>160.7595483346515</v>
       </c>
       <c r="T9" t="n">
-        <v>197.794289657069</v>
+        <v>190.9182439153576</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9026915634925</v>
+        <v>219.846270474193</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27995,7 +27995,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>199.7165641141781</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>198.8066500355929</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>172.9559344402259</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>141.7394272765009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>140.3775415572698</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.0006359884725</v>
+        <v>44.87668173018394</v>
       </c>
       <c r="R10" t="n">
         <v>155.1245282694298</v>
@@ -28062,16 +28062,16 @@
         <v>215.424258656152</v>
       </c>
       <c r="T10" t="n">
-        <v>225.8389647496245</v>
+        <v>218.962919007913</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2921362754868</v>
+        <v>280.2357151861873</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>245.2615975821166</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>279.6469525948796</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3285301682898984</v>
+        <v>0.3285301682898927</v>
       </c>
       <c r="H2" t="n">
-        <v>3.364559585998923</v>
+        <v>3.364559585998865</v>
       </c>
       <c r="I2" t="n">
-        <v>12.66565931299632</v>
+        <v>12.6656593129961</v>
       </c>
       <c r="J2" t="n">
-        <v>27.88358737089479</v>
+        <v>27.88358737089431</v>
       </c>
       <c r="K2" t="n">
-        <v>41.79026939460621</v>
+        <v>41.79026939460548</v>
       </c>
       <c r="L2" t="n">
-        <v>51.84452453240819</v>
+        <v>51.84452453240729</v>
       </c>
       <c r="M2" t="n">
-        <v>57.68702291273367</v>
+        <v>57.68702291273267</v>
       </c>
       <c r="N2" t="n">
-        <v>58.62045925338735</v>
+        <v>58.62045925338634</v>
       </c>
       <c r="O2" t="n">
-        <v>55.35363739245467</v>
+        <v>55.35363739245371</v>
       </c>
       <c r="P2" t="n">
-        <v>47.2430488627978</v>
+        <v>47.24304886279698</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.4775622109158</v>
+        <v>35.47756221091518</v>
       </c>
       <c r="R2" t="n">
-        <v>20.63703318384035</v>
+        <v>20.63703318383999</v>
       </c>
       <c r="S2" t="n">
-        <v>7.486381209906068</v>
+        <v>7.486381209905939</v>
       </c>
       <c r="T2" t="n">
-        <v>1.438140811689031</v>
+        <v>1.438140811689006</v>
       </c>
       <c r="U2" t="n">
-        <v>0.02628241346319187</v>
+        <v>0.02628241346319141</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1757791367411472</v>
+        <v>0.1757791367411442</v>
       </c>
       <c r="H3" t="n">
-        <v>1.697656399578975</v>
+        <v>1.697656399578945</v>
       </c>
       <c r="I3" t="n">
-        <v>6.052044839552657</v>
+        <v>6.052044839552552</v>
       </c>
       <c r="J3" t="n">
-        <v>16.60727361640813</v>
+        <v>16.60727361640784</v>
       </c>
       <c r="K3" t="n">
-        <v>28.38447577806499</v>
+        <v>28.38447577806449</v>
       </c>
       <c r="L3" t="n">
-        <v>38.16643054548462</v>
+        <v>38.16643054548396</v>
       </c>
       <c r="M3" t="n">
-        <v>44.5384242523512</v>
+        <v>44.53842425235042</v>
       </c>
       <c r="N3" t="n">
-        <v>45.71722381409337</v>
+        <v>45.71722381409258</v>
       </c>
       <c r="O3" t="n">
-        <v>41.82232820525006</v>
+        <v>41.82232820524933</v>
       </c>
       <c r="P3" t="n">
-        <v>33.56610550629855</v>
+        <v>33.56610550629797</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.43805261278223</v>
+        <v>22.43805261278184</v>
       </c>
       <c r="R3" t="n">
-        <v>10.91372570047229</v>
+        <v>10.9137257004721</v>
       </c>
       <c r="S3" t="n">
-        <v>3.265020368854202</v>
+        <v>3.265020368854145</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7085132748469922</v>
+        <v>0.7085132748469799</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01156441689086495</v>
+        <v>0.01156441689086475</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1473673234398746</v>
+        <v>0.1473673234398721</v>
       </c>
       <c r="H4" t="n">
-        <v>1.310229475674523</v>
+        <v>1.3102294756745</v>
       </c>
       <c r="I4" t="n">
-        <v>4.431737326719141</v>
+        <v>4.431737326719063</v>
       </c>
       <c r="J4" t="n">
-        <v>10.41886976719914</v>
+        <v>10.41886976719895</v>
       </c>
       <c r="K4" t="n">
-        <v>17.1214035778327</v>
+        <v>17.12140357783241</v>
       </c>
       <c r="L4" t="n">
-        <v>21.90950188668828</v>
+        <v>21.90950188668789</v>
       </c>
       <c r="M4" t="n">
-        <v>23.10049780067053</v>
+        <v>23.10049780067013</v>
       </c>
       <c r="N4" t="n">
-        <v>22.55121959512192</v>
+        <v>22.55121959512153</v>
       </c>
       <c r="O4" t="n">
-        <v>20.8297013167561</v>
+        <v>20.82970131675574</v>
       </c>
       <c r="P4" t="n">
-        <v>17.82340791858265</v>
+        <v>17.82340791858234</v>
       </c>
       <c r="Q4" t="n">
-        <v>12.34000378367896</v>
+        <v>12.34000378367874</v>
       </c>
       <c r="R4" t="n">
-        <v>6.626170743032906</v>
+        <v>6.626170743032792</v>
       </c>
       <c r="S4" t="n">
-        <v>2.568210536674905</v>
+        <v>2.568210536674861</v>
       </c>
       <c r="T4" t="n">
-        <v>0.6296603819703732</v>
+        <v>0.6296603819703623</v>
       </c>
       <c r="U4" t="n">
-        <v>0.008038217642174989</v>
+        <v>0.00803821764217485</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31291,7 +31291,7 @@
         <v>120.0599046221887</v>
       </c>
       <c r="L5" t="n">
-        <v>148.9449281068053</v>
+        <v>148.9449281068054</v>
       </c>
       <c r="M5" t="n">
         <v>165.7299311340341</v>
@@ -31300,7 +31300,7 @@
         <v>168.4116146850913</v>
       </c>
       <c r="O5" t="n">
-        <v>159.0263121559844</v>
+        <v>159.0263121559843</v>
       </c>
       <c r="P5" t="n">
         <v>135.7252782213693</v>
@@ -31315,7 +31315,7 @@
         <v>21.50773917103957</v>
       </c>
       <c r="T5" t="n">
-        <v>4.131656751342872</v>
+        <v>4.131656751342871</v>
       </c>
       <c r="U5" t="n">
         <v>0.07550714794001816</v>
@@ -31385,7 +31385,7 @@
         <v>96.43257830122204</v>
       </c>
       <c r="Q6" t="n">
-        <v>64.46262480772582</v>
+        <v>64.4626248077258</v>
       </c>
       <c r="R6" t="n">
         <v>31.35420961992052</v>
@@ -31434,7 +31434,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.423373839243596</v>
       </c>
       <c r="H7" t="n">
         <v>3.764178316183975</v>
@@ -31452,7 +31452,7 @@
         <v>62.94414333627064</v>
       </c>
       <c r="M7" t="n">
-        <v>66.36577372797569</v>
+        <v>66.36577372797568</v>
       </c>
       <c r="N7" t="n">
         <v>64.78774396352233</v>
@@ -31464,13 +31464,13 @@
         <v>51.20514142997091</v>
       </c>
       <c r="Q7" t="n">
-        <v>35.45178575702512</v>
+        <v>35.45178575702513</v>
       </c>
       <c r="R7" t="n">
         <v>19.03642735362569</v>
       </c>
       <c r="S7" t="n">
-        <v>7.378251362090666</v>
+        <v>7.378251362090667</v>
       </c>
       <c r="T7" t="n">
         <v>1.808960949495364</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377427</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122284</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>210.475889570406</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874066</v>
       </c>
       <c r="K11" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830432</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364266</v>
       </c>
       <c r="M11" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293311</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229608</v>
+        <v>974.145364522961</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086955</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687526</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148608</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S11" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854258</v>
       </c>
       <c r="T11" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U11" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901941</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540906</v>
       </c>
       <c r="H12" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735819</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848226</v>
       </c>
       <c r="L12" t="n">
-        <v>611.6977534235659</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504303</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927637</v>
+        <v>289.3239583024</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426206</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982455</v>
       </c>
       <c r="Q12" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S12" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013755</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,40 +31911,40 @@
         <v>2.448926481291843</v>
       </c>
       <c r="H13" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548568</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284928</v>
       </c>
       <c r="J13" t="n">
         <v>173.1391022273333</v>
       </c>
       <c r="K13" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900887</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640618</v>
+        <v>364.088578864062</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265023</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416876</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465964</v>
       </c>
       <c r="P13" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282425</v>
       </c>
       <c r="Q13" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561743</v>
       </c>
       <c r="R13" t="n">
         <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T13" t="n">
         <v>10.46359496551969</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377427</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122284</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>210.475889570406</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874066</v>
       </c>
       <c r="K14" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830432</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364266</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293311</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229608</v>
+        <v>974.145364522961</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086955</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687526</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148608</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854258</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901941</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540906</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735819</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848224</v>
+        <v>471.6886536848226</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745724</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504303</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927637</v>
+        <v>759.721473092764</v>
       </c>
       <c r="O15" t="n">
-        <v>422.3544583169088</v>
+        <v>225.6487373053097</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982455</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S15" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013755</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,40 +32148,40 @@
         <v>2.448926481291843</v>
       </c>
       <c r="H16" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548568</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284928</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900887</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.088578864062</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265023</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416876</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465964</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282425</v>
       </c>
       <c r="Q16" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561743</v>
       </c>
       <c r="R16" t="n">
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377427</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122284</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>210.475889570406</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874066</v>
       </c>
       <c r="K17" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830432</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364266</v>
       </c>
       <c r="M17" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293311</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229609</v>
+        <v>974.145364522961</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086955</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687526</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148608</v>
       </c>
       <c r="R17" t="n">
         <v>342.9428985987163</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854258</v>
       </c>
       <c r="T17" t="n">
         <v>23.8987927266572</v>
       </c>
       <c r="U17" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901941</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540906</v>
       </c>
       <c r="H18" t="n">
         <v>28.21138103088191</v>
@@ -32312,25 +32312,25 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735819</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>170.7142372419512</v>
       </c>
       <c r="L18" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745726</v>
       </c>
       <c r="M18" t="n">
-        <v>293.7647843155077</v>
+        <v>740.1323715504303</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426206</v>
       </c>
       <c r="P18" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982455</v>
       </c>
       <c r="Q18" t="n">
         <v>372.8719498286953</v>
@@ -32345,7 +32345,7 @@
         <v>11.77395965821093</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013755</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,34 +32385,34 @@
         <v>2.448926481291843</v>
       </c>
       <c r="H19" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548568</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284928</v>
       </c>
       <c r="J19" t="n">
         <v>173.1391022273333</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900887</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640619</v>
+        <v>364.088578864062</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265023</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416876</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465964</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282425</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561743</v>
       </c>
       <c r="R19" t="n">
         <v>110.1126397860859</v>
@@ -32461,46 +32461,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K20" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M20" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S20" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U20" t="n">
         <v>0.436756920190194</v>
@@ -32543,43 +32543,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J21" t="n">
         <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>640.3146339032915</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426204</v>
+        <v>648.4209452361722</v>
       </c>
       <c r="P21" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S21" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U21" t="n">
         <v>0.1921756201013754</v>
@@ -32625,7 +32625,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J22" t="n">
         <v>173.1391022273333</v>
@@ -32634,16 +32634,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P22" t="n">
         <v>296.1865264282424</v>
@@ -32655,7 +32655,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T22" t="n">
         <v>10.46359496551969</v>
@@ -32783,7 +32783,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
@@ -32792,10 +32792,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>420.7661933823238</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M24" t="n">
-        <v>740.1323715504302</v>
+        <v>525.6054322051284</v>
       </c>
       <c r="N24" t="n">
         <v>759.7214730927639</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
@@ -33032,7 +33032,7 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M27" t="n">
-        <v>258.0817497358003</v>
+        <v>341.8325499715592</v>
       </c>
       <c r="N27" t="n">
         <v>759.7214730927639</v>
@@ -33044,7 +33044,7 @@
         <v>557.7961431982454</v>
       </c>
       <c r="Q27" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>181.3625385436714</v>
@@ -33257,19 +33257,19 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L30" t="n">
-        <v>187.8760176396499</v>
+        <v>415.294578124838</v>
       </c>
       <c r="M30" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>759.7214730927639</v>
@@ -33284,7 +33284,7 @@
         <v>372.8719498286953</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S30" t="n">
         <v>54.25758340862161</v>
@@ -33497,22 +33497,22 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>187.8760176396498</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M33" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>759.7214730927639</v>
       </c>
       <c r="O33" t="n">
-        <v>694.9967242426205</v>
+        <v>661.8050645494873</v>
       </c>
       <c r="P33" t="n">
         <v>557.7961431982454</v>
@@ -33521,7 +33521,7 @@
         <v>372.8719498286953</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S33" t="n">
         <v>54.25758340862161</v>
@@ -33734,13 +33734,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>140.4762299467352</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>634.2436048745725</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>740.1323715504302</v>
@@ -33752,13 +33752,13 @@
         <v>694.9967242426205</v>
       </c>
       <c r="P36" t="n">
-        <v>344.3187317059969</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S36" t="n">
         <v>54.25758340862161</v>
@@ -33971,19 +33971,19 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L39" t="n">
         <v>634.2436048745725</v>
       </c>
       <c r="M39" t="n">
-        <v>258.0817497358004</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927639</v>
+        <v>661.2558090115484</v>
       </c>
       <c r="O39" t="n">
         <v>694.9967242426205</v>
@@ -33992,10 +33992,10 @@
         <v>557.7961431982454</v>
       </c>
       <c r="Q39" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.25758340862161</v>
@@ -34208,22 +34208,22 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L42" t="n">
         <v>634.2436048745725</v>
       </c>
       <c r="M42" t="n">
-        <v>258.0817497358004</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N42" t="n">
-        <v>759.7214730927639</v>
+        <v>347.0847408589315</v>
       </c>
       <c r="O42" t="n">
-        <v>694.9967242426205</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>557.7961431982454</v>
@@ -34357,46 +34357,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H44" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K44" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L44" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M44" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N44" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O44" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P44" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q44" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R44" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S44" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T44" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U44" t="n">
         <v>0.436756920190194</v>
@@ -34439,43 +34439,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H45" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L45" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M45" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N45" t="n">
-        <v>277.6708512781348</v>
+        <v>217.4564689916175</v>
       </c>
       <c r="O45" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P45" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R45" t="n">
-        <v>181.3625385436713</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S45" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T45" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U45" t="n">
         <v>0.1921756201013754</v>
@@ -34521,7 +34521,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J46" t="n">
         <v>173.1391022273333</v>
@@ -34530,16 +34530,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L46" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M46" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N46" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O46" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P46" t="n">
         <v>296.1865264282424</v>
@@ -34551,7 +34551,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T46" t="n">
         <v>10.46359496551969</v>
@@ -35170,22 +35170,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="N8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O8" t="n">
-        <v>6.598225711743297</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="K9" t="n">
-        <v>6.598225711743296</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>6.876045741711437</v>
@@ -35264,7 +35264,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L10" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="M10" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>6.598225711743297</v>
+      </c>
+      <c r="P10" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="O10" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607203</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380627</v>
       </c>
       <c r="L11" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M11" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020584</v>
       </c>
       <c r="N11" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870087</v>
       </c>
       <c r="P11" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404113</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.049527853053135</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>149.1393755069152</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>333.8472147104636</v>
       </c>
       <c r="L12" t="n">
-        <v>473.1433736436917</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094305</v>
+        <v>157.9822462190667</v>
       </c>
       <c r="O12" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981762</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>423.8217357839153</v>
       </c>
       <c r="Q12" t="n">
-        <v>232.8901757426737</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.68303457970745</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066055</v>
       </c>
       <c r="K13" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642058</v>
       </c>
       <c r="L13" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243781</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N13" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209162</v>
       </c>
       <c r="O13" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931358</v>
+        <v>293.465085693136</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607203</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380627</v>
       </c>
       <c r="L14" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020584</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870087</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404113</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>149.1393755069151</v>
+        <v>149.1393755069152</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104634</v>
+        <v>333.8472147104636</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946982</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094307</v>
       </c>
       <c r="O15" t="n">
-        <v>279.7582138724644</v>
+        <v>83.05249286086523</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>423.8217357839153</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970745</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066055</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642058</v>
       </c>
       <c r="L16" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243781</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209162</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.465085693136</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607203</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380627</v>
       </c>
       <c r="L17" t="n">
         <v>625.7775560664393</v>
       </c>
       <c r="M17" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020584</v>
       </c>
       <c r="N17" t="n">
         <v>744.73230092637</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870087</v>
       </c>
       <c r="P17" t="n">
         <v>553.844392613483</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404113</v>
       </c>
       <c r="R17" t="n">
         <v>127.3573607845842</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>149.1393755069152</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>32.8727982675922</v>
       </c>
       <c r="L18" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946984</v>
       </c>
       <c r="M18" t="n">
-        <v>151.6307503934893</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>552.4004797981761</v>
+        <v>552.4004797981762</v>
       </c>
       <c r="P18" t="n">
-        <v>423.8217357839152</v>
+        <v>423.8217357839153</v>
       </c>
       <c r="Q18" t="n">
         <v>232.8901757426738</v>
@@ -36039,25 +36039,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066055</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642058</v>
       </c>
       <c r="L19" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243781</v>
       </c>
       <c r="M19" t="n">
         <v>423.4642343883428</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209162</v>
       </c>
       <c r="O19" t="n">
         <v>370.729754560636</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931359</v>
+        <v>293.465085693136</v>
       </c>
       <c r="Q19" t="n">
         <v>118.9021551044799</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L20" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M20" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N20" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P20" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J21" t="n">
         <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>498.1805999812732</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O21" t="n">
-        <v>552.400479798176</v>
+        <v>505.8247007917277</v>
       </c>
       <c r="P21" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>232.8901757426737</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K22" t="n">
         <v>262.2512393642057</v>
@@ -36285,19 +36285,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N22" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>744.73230092637</v>
       </c>
       <c r="O23" t="n">
-        <v>689.7596327870085</v>
+        <v>741.0722806160982</v>
       </c>
       <c r="P23" t="n">
         <v>553.844392613483</v>
@@ -36379,7 +36379,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R23" t="n">
-        <v>178.6700086136741</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36440,10 +36440,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>282.2118136024496</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M24" t="n">
-        <v>597.9983376284119</v>
+        <v>383.47139828311</v>
       </c>
       <c r="N24" t="n">
         <v>628.3797610094306</v>
@@ -36598,7 +36598,7 @@
         <v>474.3741250380626</v>
       </c>
       <c r="L26" t="n">
-        <v>625.7775560664393</v>
+        <v>677.0902038955297</v>
       </c>
       <c r="M26" t="n">
         <v>728.2874363020583</v>
@@ -36610,7 +36610,7 @@
         <v>689.7596327870085</v>
       </c>
       <c r="P26" t="n">
-        <v>605.1570404425727</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q26" t="n">
         <v>367.2547334404112</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M27" t="n">
-        <v>115.947715813782</v>
+        <v>199.6985160495408</v>
       </c>
       <c r="N27" t="n">
         <v>628.3797610094306</v>
@@ -36692,7 +36692,7 @@
         <v>423.8217357839152</v>
       </c>
       <c r="Q27" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>35.68303457970742</v>
@@ -36850,10 +36850,10 @@
         <v>553.844392613483</v>
       </c>
       <c r="Q29" t="n">
-        <v>367.2547334404112</v>
+        <v>418.5673812695001</v>
       </c>
       <c r="R29" t="n">
-        <v>178.6700086136732</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L30" t="n">
-        <v>49.32163785977568</v>
+        <v>276.7401983449638</v>
       </c>
       <c r="M30" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>628.3797610094306</v>
@@ -36932,7 +36932,7 @@
         <v>232.8901757426738</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>474.3741250380626</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7775560664393</v>
+        <v>677.0902038955297</v>
       </c>
       <c r="M32" t="n">
         <v>728.2874363020583</v>
@@ -37090,7 +37090,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R32" t="n">
-        <v>178.670008613675</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>49.32163785977566</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M33" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>628.3797610094306</v>
       </c>
       <c r="O33" t="n">
-        <v>552.4004797981761</v>
+        <v>519.2088201050428</v>
       </c>
       <c r="P33" t="n">
         <v>423.8217357839152</v>
@@ -37169,7 +37169,7 @@
         <v>232.8901757426738</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>282.3190661607229</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K35" t="n">
         <v>474.3741250380626</v>
@@ -37315,7 +37315,7 @@
         <v>728.2874363020583</v>
       </c>
       <c r="N35" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263716</v>
       </c>
       <c r="O35" t="n">
         <v>689.7596327870085</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>13.63860328006851</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>495.6892250946983</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>597.9983376284119</v>
@@ -37400,13 +37400,13 @@
         <v>552.4004797981761</v>
       </c>
       <c r="P36" t="n">
-        <v>210.3443242916667</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>282.3190661607229</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380643</v>
       </c>
       <c r="L38" t="n">
         <v>625.7775560664393</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L39" t="n">
         <v>495.6892250946983</v>
       </c>
       <c r="M39" t="n">
-        <v>115.9477158137821</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094306</v>
+        <v>529.9140969282151</v>
       </c>
       <c r="O39" t="n">
         <v>552.4004797981761</v>
@@ -37640,10 +37640,10 @@
         <v>423.8217357839152</v>
       </c>
       <c r="Q39" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>728.2874363020583</v>
       </c>
       <c r="N41" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263716</v>
       </c>
       <c r="O41" t="n">
         <v>689.7596327870085</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L42" t="n">
         <v>495.6892250946983</v>
       </c>
       <c r="M42" t="n">
-        <v>115.9477158137821</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N42" t="n">
-        <v>628.3797610094306</v>
+        <v>215.7430287755981</v>
       </c>
       <c r="O42" t="n">
-        <v>552.4004797981761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>423.8217357839152</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K44" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L44" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M44" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N44" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O44" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P44" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q44" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R44" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L45" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M45" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N45" t="n">
-        <v>146.3291391948015</v>
+        <v>86.11475690828422</v>
       </c>
       <c r="O45" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P45" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>232.8901757426737</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R45" t="n">
-        <v>35.6830345797074</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K46" t="n">
         <v>262.2512393642057</v>
@@ -38181,19 +38181,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M46" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N46" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O46" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P46" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q46" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
